--- a/Копия Шаблон для оформления задания.xlsx
+++ b/Копия Шаблон для оформления задания.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\st\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D571131-B137-4B6B-979C-A37B6F52A6D3}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF6B89A3-2948-4951-BD19-06A4E66F7B15}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,6 +40,11 @@
   </si>
   <si>
     <t>интернет-магазин</t>
+  </si>
+  <si>
+    <t>https://faberlic.com
+https://chay.by/
+https://catalog.onliner.by/</t>
   </si>
   <si>
     <r>
@@ -60,21 +65,16 @@
       </rPr>
       <t>1. Поиск товара по различным параметрам
 2. Авторизация
-3. Добавление товаров
+3. Добавление товаров(?)
 4. Отображение товаров
 5. Характеристика товаров
 6. Добавление и удаление(корзина)
-7. Оформление заказа из корзины 
+7. Оформление заказа из корзины (подсчет общей суммы товаров в корзине)
 8. Сортировка          
 9. Категоризация 
-10. Профиль покупателя
+10. Профиль покупателя(с внесенными данными после авторизации или регистрации)
 11. Регистрация и создание профиля</t>
     </r>
-  </si>
-  <si>
-    <t>https://faberlic.com
-https://chay.by/
-https://catalog.onliner.by/</t>
   </si>
 </sst>
 </file>
@@ -503,15 +503,15 @@
       <c r="F2" s="4"/>
       <c r="G2" s="4"/>
     </row>
-    <row r="3" spans="2:7" ht="180" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:7" ht="210" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>6</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
